--- a/results_submaps/cu_jgr/30x30/cu_jgr_30x30_True_2_500.xlsx
+++ b/results_submaps/cu_jgr/30x30/cu_jgr_30x30_True_2_500.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,6 +1156,218 @@
         <v>0.85</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>62.742</v>
+      </c>
+      <c r="D14" t="n">
+        <v>940.376</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.93306206</v>
+      </c>
+      <c r="F14" t="n">
+        <v>83036265.94400001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06503414</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.27340972</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17.97428276</v>
+      </c>
+      <c r="J14" t="n">
+        <v>13.09818923066255</v>
+      </c>
+      <c r="K14" t="n">
+        <v>196.3738271358175</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1939020838872756</v>
+      </c>
+      <c r="M14" t="n">
+        <v>37308077.89811619</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01780541457638304</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09981963582438994</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.776680470392529</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>80.84</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1185.924</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.73006058</v>
+      </c>
+      <c r="F15" t="n">
+        <v>65727917.896</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.05246292</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.28368434</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.7410607</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14.33154514952053</v>
+      </c>
+      <c r="K15" t="n">
+        <v>205.9520106368732</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1236145603110953</v>
+      </c>
+      <c r="M15" t="n">
+        <v>22546383.93325812</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.005707393464087422</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.06415970915709208</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9.673066310122771</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>46.092</v>
+      </c>
+      <c r="D16" t="n">
+        <v>920.924</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.96314906</v>
+      </c>
+      <c r="F16" t="n">
+        <v>123300097.872</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.08834232</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2065659</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.2250882</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.87345391308576</v>
+      </c>
+      <c r="K16" t="n">
+        <v>217.2577088346837</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.2226476197854103</v>
+      </c>
+      <c r="M16" t="n">
+        <v>57181264.09824292</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0293864971687559</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.09457383351944199</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.111083349348784</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>56.512</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1098.198</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.78682602</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100206206.928</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08038532</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.22797276</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13.32970388</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.887030025515797</v>
+      </c>
+      <c r="K17" t="n">
+        <v>186.8924406302445</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1274289746325828</v>
+      </c>
+      <c r="M17" t="n">
+        <v>30305669.43869139</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.007630316241775239</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.04991430324184279</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.483287335673598</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
